--- a/30 august - 3 september 2021a.xlsx
+++ b/30 august - 3 september 2021a.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="30 august - 3 september 2021a" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -37,9 +37,6 @@
     <t>Lõunasöök</t>
   </si>
   <si>
-    <t>Guljaš</t>
-  </si>
-  <si>
     <t xml:space="preserve">Köögivilja püreesupp </t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>©NutriData toitumisprogramm, versioon 10, Tervise Arengu Instituut, 2021.</t>
+  </si>
+  <si>
+    <t>Guljax</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4">
         <v>80</v>
@@ -557,7 +557,7 @@
         <v>152.85776000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>250</v>
@@ -566,7 +566,7 @@
         <v>164.94499999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="4">
         <v>80</v>
@@ -575,7 +575,7 @@
         <v>179.72215199999999</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="4">
         <v>250</v>
@@ -584,7 +584,7 @@
         <v>228.46450000000002</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="4">
         <v>230</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>150</v>
@@ -604,7 +604,7 @@
         <v>225.27</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>80</v>
@@ -613,7 +613,7 @@
         <v>183.27200000000002</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4">
         <v>50</v>
@@ -622,7 +622,7 @@
         <v>75.8703</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="4">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>69.78</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N6" s="4">
         <v>20</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>50</v>
@@ -651,7 +651,7 @@
         <v>36.714199999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
         <v>30</v>
@@ -660,7 +660,7 @@
         <v>69.78</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4">
         <v>100</v>
@@ -669,7 +669,7 @@
         <v>76.792217510601148</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="4">
         <v>120</v>
@@ -678,7 +678,7 @@
         <v>199.524</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" s="4">
         <v>50</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>20</v>
@@ -698,7 +698,7 @@
         <v>46.52</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4">
         <v>150</v>
@@ -707,7 +707,7 @@
         <v>94.35</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4">
         <v>50</v>
@@ -716,12 +716,12 @@
         <v>33.527200000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="5"/>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="4">
         <v>20</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4">
         <v>150</v>
@@ -741,12 +741,12 @@
         <v>33.5625</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5"/>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="4">
         <v>20</v>
@@ -755,12 +755,12 @@
         <v>46.52</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="5"/>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" s="4">
         <v>150</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4">
         <v>50</v>
@@ -780,12 +780,12 @@
         <v>23.187999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="4">
         <v>150</v>
@@ -794,12 +794,12 @@
         <v>116.64</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N10" s="4">
         <v>40</v>
@@ -810,17 +810,17 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4">
         <v>50</v>
@@ -829,19 +829,19 @@
         <v>24.128</v>
       </c>
       <c r="J11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="5"/>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
